--- a/Data/InputFile.xlsx
+++ b/Data/InputFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/aaron_hubbart_uipath_com/Documents/Documents/UiPath/Automation Sandbox/Orchestrator Data Population_v2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/aaron_hubbart_uipath_com/Documents/Documents/UiPath/Automation Sandbox/###GitHub/Orchestrator Data Population/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{EF20E042-8E41-40C1-AE57-43E85B156085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B6FB11F-DAD1-40EB-BCAE-F6384E3B7DF3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{EF20E042-8E41-40C1-AE57-43E85B156085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{736EFE28-C638-4313-B24C-C2194161F15B}"/>
   <bookViews>
-    <workbookView xWindow="49764" yWindow="1080" windowWidth="23040" windowHeight="25320" activeTab="1" xr2:uid="{BB8D6669-DD49-481A-9A30-B239536A1835}"/>
+    <workbookView xWindow="8715" yWindow="-16575" windowWidth="29085" windowHeight="15915" activeTab="1" xr2:uid="{BB8D6669-DD49-481A-9A30-B239536A1835}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder Structure" sheetId="1" r:id="rId1"/>
@@ -355,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,12 +657,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
         <v>Finance &amp; Accounting</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -694,7 +694,7 @@
         <v>Finance &amp; Accounting/Controller</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -706,7 +706,7 @@
         <v>Finance &amp; Accounting/FP&amp;A</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -715,7 +715,7 @@
         <v>Human Resources</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -724,7 +724,7 @@
         <v>Information Technology</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -736,7 +736,7 @@
         <v>Information Technology/Development</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -748,7 +748,7 @@
         <v>Information Technology/Infrastructure</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
         <v>Information Technology/Support</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -769,7 +769,7 @@
         <v>Legal</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -787,25 +787,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4820AAE-0A53-4583-95DF-BCE04B621F28}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -840,7 +840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -880,7 +880,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -920,7 +920,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -960,7 +960,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>{\"in_bln_FailProcess\":true}</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2080,26 +2080,26 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
